--- a/response_time/static/docs/modelo.xlsx
+++ b/response_time/static/docs/modelo.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$E$1</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">TAREFA</t>
   </si>
@@ -38,6 +35,15 @@
   </si>
   <si>
     <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3</t>
   </si>
 </sst>
 </file>
@@ -52,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -111,17 +118,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -136,25 +139,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.26"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -174,126 +170,57 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -301,6 +228,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>